--- a/data/in/Constants/CATEGORY.xlsx
+++ b/data/in/Constants/CATEGORY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INGENIERIA\Documents\Programacion\Python\PRE\FLX\data\in\Constants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Programacion\PRE\FLX\data\in\Constants\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -544,13 +544,13 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
